--- a/Files/contactos.xlsx
+++ b/Files/contactos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASIST TI-BHC\Documents\Develop\Python\Automatizacion\msg-whatsapp\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Develop\Python\Automatizaciones\send_msg_wpp\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADBFA17-5D6C-4D2D-B19D-906DED6BCE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A15ABF-847C-4563-AC8A-5805926F51F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,48 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>nombre</t>
   </si>
   <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>Mio</t>
-  </si>
-  <si>
     <t>Daniel Calcina</t>
   </si>
   <si>
-    <t>Grupo MIO</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Grupo</t>
-  </si>
-  <si>
     <t>pref_msj</t>
   </si>
   <si>
     <t>suf_msj</t>
   </si>
   <si>
-    <t xml:space="preserve">Hola, </t>
-  </si>
-  <si>
-    <t>Buenos dias,</t>
-  </si>
-  <si>
-    <t>¿Cómo estas?, podrias ayudarme con …</t>
-  </si>
-  <si>
-    <t>: El siguiente mensaje  es para informales lo siguiente.</t>
-  </si>
-  <si>
     <t>contacto</t>
+  </si>
+  <si>
+    <t>Hola</t>
+  </si>
+  <si>
+    <t>Estoy probando el envio de mensajes</t>
   </si>
 </sst>
 </file>
@@ -384,70 +363,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>922996705</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Files/contactos.xlsx
+++ b/Files/contactos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Develop\Python\Automatizaciones\send_msg_wpp\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A15ABF-847C-4563-AC8A-5805926F51F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9703D4CB-55CD-4C95-B032-FD4217082448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,33 +27,41 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>Daniel Calcina</t>
-  </si>
-  <si>
-    <t>pref_msj</t>
-  </si>
-  <si>
-    <t>suf_msj</t>
-  </si>
-  <si>
-    <t>contacto</t>
-  </si>
-  <si>
-    <t>Hola</t>
-  </si>
-  <si>
-    <t>Estoy probando el envio de mensajes</t>
+    <t>prefijo_mensaje</t>
+  </si>
+  <si>
+    <t>nombre_contacto</t>
+  </si>
+  <si>
+    <t>nro_celular_contacto</t>
+  </si>
+  <si>
+    <t>sufijo_mensaje</t>
+  </si>
+  <si>
+    <t>Nombre de la Persona</t>
+  </si>
+  <si>
+    <t>mensaje que sale despues del nombre</t>
+  </si>
+  <si>
+    <t>Hola / Buenos (dias, tardes, noches)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,49 +372,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>922996705</v>
+        <v>123456789</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>